--- a/Paper Docs/VernalisLoads.xlsx
+++ b/Paper Docs/VernalisLoads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsaleh\Documents\GitHub\PES_Project\Paper Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825A7208-EE9C-42B8-AC96-14D2F07EB6CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5667C50-8B42-4FD1-8698-BED67ED70CBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP con plot" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$B$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'TN Loads'!$A$1:$Y$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TP Loads'!$A$1:$Q$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TP Loads'!$A$1:$P$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>DecYear</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>FN_TN con</t>
-  </si>
-  <si>
-    <t>NF annual Conc</t>
   </si>
   <si>
     <t>min</t>
@@ -2177,7 +2174,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TP Loads'!$L$1</c:f>
+              <c:f>'TP Loads'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2358,7 +2355,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TP Loads'!$L$2:$L$48</c:f>
+              <c:f>'TP Loads'!$K$2:$K$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="47"/>
@@ -2518,7 +2515,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TP Loads'!$P$1</c:f>
+              <c:f>'TP Loads'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2703,7 +2700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TP Loads'!$P$2:$P$48</c:f>
+              <c:f>'TP Loads'!$O$2:$O$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
@@ -3365,6 +3362,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="569722032"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="years"/>
@@ -10669,7 +10667,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{324DD1D4-38B0-4CA4-B886-F751616FECA2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10680,7 +10678,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A05DF0D8-A420-4838-900D-770D86C3FC6E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10725,7 +10723,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6285057"/>
+    <xdr:ext cx="8675872" cy="6298314"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10758,7 +10756,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666307" cy="6285057"/>
+    <xdr:ext cx="8675872" cy="6298314"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11183,10 +11181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" activeCellId="4" sqref="C1:C1048576 D1:D1048576 H1:H1048576 L1:L1048576 P1:P1048576"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11197,17 +11195,15 @@
     <col min="6" max="6" width="12" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1"/>
-    <col min="13" max="14" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="7" customWidth="1"/>
+    <col min="12" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11228,34 +11224,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="O1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1972.2476359510699</v>
       </c>
@@ -11282,26 +11275,22 @@
       <c r="I2" s="4">
         <v>0.23980662740736999</v>
       </c>
-      <c r="J2" s="6">
-        <f>I2*366</f>
-        <v>87.769225631097413</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="J2" s="4">
         <v>2090.7412331057699</v>
       </c>
-      <c r="L2" s="6">
-        <f>K2*366</f>
+      <c r="K2" s="6">
+        <f>J2*366</f>
         <v>765211.29131671181</v>
       </c>
+      <c r="L2" s="4">
+        <v>12</v>
+      </c>
       <c r="M2" s="4">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4">
         <v>10</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1973.24711938423</v>
       </c>
@@ -11328,26 +11317,22 @@
       <c r="I3" s="4">
         <v>0.24142677893518699</v>
       </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J48" si="1">I3*365</f>
-        <v>88.120774311343254</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J3" s="4">
         <v>2086.4828833177698</v>
       </c>
-      <c r="L3" s="6">
-        <f t="shared" ref="L3:L48" si="2">K3*365</f>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K48" si="1">J3*365</f>
         <v>761566.252410986</v>
       </c>
+      <c r="L3" s="4">
+        <v>12</v>
+      </c>
       <c r="M3" s="4">
-        <v>12</v>
-      </c>
-      <c r="N3" s="4">
         <v>10</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1974.2470319634699</v>
       </c>
@@ -11374,26 +11359,22 @@
       <c r="I4" s="4">
         <v>0.24365581806631001</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
+        <v>2090.2910576334798</v>
+      </c>
+      <c r="K4" s="6">
         <f t="shared" si="1"/>
-        <v>88.934373594203151</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2090.2910576334798</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" si="2"/>
         <v>762956.2360362201</v>
       </c>
+      <c r="L4" s="4">
+        <v>12</v>
+      </c>
       <c r="M4" s="4">
-        <v>12</v>
-      </c>
-      <c r="N4" s="4">
         <v>10</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1975.2470319634699</v>
       </c>
@@ -11420,26 +11401,22 @@
       <c r="I5" s="4">
         <v>0.24633441529162001</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
+        <v>2096.7885484744202</v>
+      </c>
+      <c r="K5" s="6">
         <f t="shared" si="1"/>
-        <v>89.912061581441307</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2096.7885484744202</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" si="2"/>
         <v>765327.82019316335</v>
       </c>
+      <c r="L5" s="4">
+        <v>12</v>
+      </c>
       <c r="M5" s="4">
-        <v>12</v>
-      </c>
-      <c r="N5" s="4">
         <v>10</v>
       </c>
-      <c r="O5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1976.2476359510699</v>
       </c>
@@ -11466,26 +11443,22 @@
       <c r="I6" s="4">
         <v>0.24921040251693999</v>
       </c>
-      <c r="J6" s="6">
-        <f>I6*366</f>
-        <v>91.211007321200029</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="J6" s="4">
         <v>2106.8948215937999</v>
       </c>
-      <c r="L6" s="6">
-        <f>K6*366</f>
+      <c r="K6" s="6">
+        <f>J6*366</f>
         <v>771123.50470333081</v>
       </c>
+      <c r="L6" s="4">
+        <v>12</v>
+      </c>
       <c r="M6" s="4">
-        <v>12</v>
-      </c>
-      <c r="N6" s="4">
         <v>10</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1977.24711938423</v>
       </c>
@@ -11512,26 +11485,22 @@
       <c r="I7" s="4">
         <v>0.25246841002156001</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
+        <v>2109.8655622994602</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
-        <v>92.150969657869396</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2109.8655622994602</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="2"/>
         <v>770100.93023930292</v>
       </c>
+      <c r="L7" s="4">
+        <v>12</v>
+      </c>
       <c r="M7" s="4">
-        <v>12</v>
-      </c>
-      <c r="N7" s="4">
         <v>10</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1978.2470319634699</v>
       </c>
@@ -11558,26 +11527,22 @@
       <c r="I8" s="4">
         <v>0.25649952559185302</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
+        <v>2117.2474532695201</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="1"/>
-        <v>93.62232684102635</v>
-      </c>
-      <c r="K8" s="4">
-        <v>2117.2474532695201</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="2"/>
         <v>772795.3204433748</v>
       </c>
+      <c r="L8" s="4">
+        <v>12</v>
+      </c>
       <c r="M8" s="4">
-        <v>12</v>
-      </c>
-      <c r="N8" s="4">
         <v>10</v>
       </c>
-      <c r="O8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1979.2470319634699</v>
       </c>
@@ -11604,26 +11569,22 @@
       <c r="I9" s="4">
         <v>0.261939180527339</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
+        <v>2135.00441456306</v>
+      </c>
+      <c r="K9" s="6">
         <f t="shared" si="1"/>
-        <v>95.607800892478735</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2135.00441456306</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="2"/>
         <v>779276.61131551687</v>
       </c>
+      <c r="L9" s="4">
+        <v>12</v>
+      </c>
       <c r="M9" s="4">
-        <v>12</v>
-      </c>
-      <c r="N9" s="4">
         <v>10</v>
       </c>
-      <c r="O9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1980.2476359510699</v>
       </c>
@@ -11650,26 +11611,22 @@
       <c r="I10" s="4">
         <v>0.26660400911877202</v>
       </c>
-      <c r="J10" s="6">
-        <f>I10*366</f>
-        <v>97.577067337470567</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="J10" s="4">
         <v>2155.7366781013702</v>
       </c>
-      <c r="L10" s="6">
-        <f>K10*366</f>
+      <c r="K10" s="6">
+        <f>J10*366</f>
         <v>788999.62418510148</v>
       </c>
+      <c r="L10" s="4">
+        <v>12</v>
+      </c>
       <c r="M10" s="4">
-        <v>12</v>
-      </c>
-      <c r="N10" s="4">
         <v>10</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1981.24711938423</v>
       </c>
@@ -11696,26 +11653,22 @@
       <c r="I11" s="4">
         <v>0.27071737145476699</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
+        <v>2183.2264876683298</v>
+      </c>
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
-        <v>98.811840580989951</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2183.2264876683298</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="2"/>
         <v>796877.66799894033</v>
       </c>
+      <c r="L11" s="4">
+        <v>12</v>
+      </c>
       <c r="M11" s="4">
-        <v>12</v>
-      </c>
-      <c r="N11" s="4">
         <v>10</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1982.2470319634699</v>
       </c>
@@ -11742,26 +11695,22 @@
       <c r="I12" s="4">
         <v>0.27476897511258302</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
+        <v>2221.6850281417401</v>
+      </c>
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
-        <v>100.29067591609281</v>
-      </c>
-      <c r="K12" s="4">
-        <v>2221.6850281417401</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="2"/>
         <v>810915.03527173516</v>
       </c>
+      <c r="L12" s="4">
+        <v>12</v>
+      </c>
       <c r="M12" s="4">
-        <v>12</v>
-      </c>
-      <c r="N12" s="4">
         <v>10</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1983.2470319634699</v>
       </c>
@@ -11788,26 +11737,22 @@
       <c r="I13" s="4">
         <v>0.28203396512224599</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
+        <v>2261.8997753232802</v>
+      </c>
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
-        <v>102.94239726961979</v>
-      </c>
-      <c r="K13" s="4">
-        <v>2261.8997753232802</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="2"/>
         <v>825593.41799299733</v>
       </c>
+      <c r="L13" s="4">
+        <v>12</v>
+      </c>
       <c r="M13" s="4">
-        <v>12</v>
-      </c>
-      <c r="N13" s="4">
         <v>10</v>
       </c>
-      <c r="O13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1984.2476359510699</v>
       </c>
@@ -11834,26 +11779,22 @@
       <c r="I14" s="4">
         <v>0.29118891624941101</v>
       </c>
-      <c r="J14" s="6">
-        <f>I14*366</f>
-        <v>106.57514334728442</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="J14" s="4">
         <v>2303.5840811015701</v>
       </c>
-      <c r="L14" s="6">
-        <f>K14*366</f>
+      <c r="K14" s="6">
+        <f>J14*366</f>
         <v>843111.77368317463</v>
       </c>
+      <c r="L14" s="4">
+        <v>12</v>
+      </c>
       <c r="M14" s="4">
-        <v>12</v>
-      </c>
-      <c r="N14" s="4">
         <v>10</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1985.24711938423</v>
       </c>
@@ -11880,26 +11821,22 @@
       <c r="I15" s="4">
         <v>0.29038617807392803</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
+        <v>2321.7251398089002</v>
+      </c>
+      <c r="K15" s="6">
         <f t="shared" si="1"/>
-        <v>105.99095499698373</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2321.7251398089002</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="2"/>
         <v>847429.67603024852</v>
       </c>
+      <c r="L15" s="4">
+        <v>12</v>
+      </c>
       <c r="M15" s="4">
-        <v>12</v>
-      </c>
-      <c r="N15" s="4">
         <v>10</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1986.2470319634699</v>
       </c>
@@ -11926,26 +11863,22 @@
       <c r="I16" s="4">
         <v>0.28769488642610602</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
+        <v>2349.9723834299798</v>
+      </c>
+      <c r="K16" s="6">
         <f t="shared" si="1"/>
-        <v>105.0086335455287</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2349.9723834299798</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="2"/>
         <v>857739.91995194263</v>
       </c>
+      <c r="L16" s="4">
+        <v>12</v>
+      </c>
       <c r="M16" s="4">
-        <v>12</v>
-      </c>
-      <c r="N16" s="4">
         <v>10</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1987.2470319634699</v>
       </c>
@@ -11972,26 +11905,22 @@
       <c r="I17" s="4">
         <v>0.28599425922876098</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
+        <v>2377.92459232601</v>
+      </c>
+      <c r="K17" s="6">
         <f t="shared" si="1"/>
-        <v>104.38790461849776</v>
-      </c>
-      <c r="K17" s="4">
-        <v>2377.92459232601</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="2"/>
         <v>867942.47619899362</v>
       </c>
+      <c r="L17" s="4">
+        <v>12</v>
+      </c>
       <c r="M17" s="4">
-        <v>12</v>
-      </c>
-      <c r="N17" s="4">
         <v>10</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1988.2476359510699</v>
       </c>
@@ -12018,26 +11947,22 @@
       <c r="I18" s="4">
         <v>0.26993499409833499</v>
       </c>
-      <c r="J18" s="6">
-        <f>I18*366</f>
-        <v>98.796207839990601</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="J18" s="4">
         <v>2348.9334456535198</v>
       </c>
-      <c r="L18" s="6">
-        <f>K18*366</f>
+      <c r="K18" s="6">
+        <f>J18*366</f>
         <v>859709.6411091882</v>
       </c>
+      <c r="L18" s="4">
+        <v>12</v>
+      </c>
       <c r="M18" s="4">
-        <v>12</v>
-      </c>
-      <c r="N18" s="4">
         <v>10</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1989.24711938423</v>
       </c>
@@ -12064,26 +11989,22 @@
       <c r="I19" s="4">
         <v>0.256272860777355</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="4">
+        <v>2309.6828775081199</v>
+      </c>
+      <c r="K19" s="6">
         <f t="shared" si="1"/>
-        <v>93.539594183734579</v>
-      </c>
-      <c r="K19" s="4">
-        <v>2309.6828775081199</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="2"/>
         <v>843034.25029046379</v>
       </c>
+      <c r="L19" s="4">
+        <v>12</v>
+      </c>
       <c r="M19" s="4">
-        <v>12</v>
-      </c>
-      <c r="N19" s="4">
         <v>10</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1990.2470319634699</v>
       </c>
@@ -12110,26 +12031,22 @@
       <c r="I20" s="4">
         <v>0.250625041368365</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="4">
+        <v>2307.6731425419998</v>
+      </c>
+      <c r="K20" s="6">
         <f t="shared" si="1"/>
-        <v>91.478140099453228</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2307.6731425419998</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="2"/>
         <v>842300.69702782994</v>
       </c>
+      <c r="L20" s="4">
+        <v>12</v>
+      </c>
       <c r="M20" s="4">
-        <v>12</v>
-      </c>
-      <c r="N20" s="4">
         <v>10</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1991.2470319634699</v>
       </c>
@@ -12156,26 +12073,22 @@
       <c r="I21" s="4">
         <v>0.24695563353548</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
+        <v>2315.7654704860702</v>
+      </c>
+      <c r="K21" s="6">
         <f t="shared" si="1"/>
-        <v>90.138806240450194</v>
-      </c>
-      <c r="K21" s="4">
-        <v>2315.7654704860702</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="2"/>
         <v>845254.39672741562</v>
       </c>
+      <c r="L21" s="4">
+        <v>12</v>
+      </c>
       <c r="M21" s="4">
-        <v>12</v>
-      </c>
-      <c r="N21" s="4">
         <v>10</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1992.2476359510699</v>
       </c>
@@ -12202,26 +12115,22 @@
       <c r="I22" s="4">
         <v>0.24290011162276401</v>
       </c>
-      <c r="J22" s="6">
-        <f>I22*366</f>
-        <v>88.901440853931632</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="J22" s="4">
         <v>2294.6914964166899</v>
       </c>
-      <c r="L22" s="6">
-        <f>K22*366</f>
+      <c r="K22" s="6">
+        <f>J22*366</f>
         <v>839857.08768850856</v>
       </c>
+      <c r="L22" s="4">
+        <v>12</v>
+      </c>
       <c r="M22" s="4">
-        <v>12</v>
-      </c>
-      <c r="N22" s="4">
         <v>10</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1993.24711938423</v>
       </c>
@@ -12248,26 +12157,22 @@
       <c r="I23" s="4">
         <v>0.240073896562468</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="4">
+        <v>2316.5426629953299</v>
+      </c>
+      <c r="K23" s="6">
         <f t="shared" si="1"/>
-        <v>87.62697224530082</v>
-      </c>
-      <c r="K23" s="4">
-        <v>2316.5426629953299</v>
-      </c>
-      <c r="L23" s="6">
-        <f t="shared" si="2"/>
         <v>845538.07199329545</v>
       </c>
+      <c r="L23" s="4">
+        <v>12</v>
+      </c>
       <c r="M23" s="4">
-        <v>12</v>
-      </c>
-      <c r="N23" s="4">
         <v>10</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1994.2470319634699</v>
       </c>
@@ -12294,26 +12199,22 @@
       <c r="I24" s="4">
         <v>0.23425582268926401</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="4">
+        <v>2293.99904881166</v>
+      </c>
+      <c r="K24" s="6">
         <f t="shared" si="1"/>
-        <v>85.50337528158137</v>
-      </c>
-      <c r="K24" s="4">
-        <v>2293.99904881166</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="2"/>
         <v>837309.65281625593</v>
       </c>
+      <c r="L24" s="4">
+        <v>12</v>
+      </c>
       <c r="M24" s="4">
-        <v>12</v>
-      </c>
-      <c r="N24" s="4">
         <v>10</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1995.2470319634699</v>
       </c>
@@ -12340,26 +12241,22 @@
       <c r="I25" s="4">
         <v>0.22620154151773</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="4">
+        <v>2176.9267222205999</v>
+      </c>
+      <c r="K25" s="6">
         <f t="shared" si="1"/>
-        <v>82.563562653971445</v>
-      </c>
-      <c r="K25" s="4">
-        <v>2176.9267222205999</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="2"/>
         <v>794578.25361051899</v>
       </c>
+      <c r="L25" s="4">
+        <v>12</v>
+      </c>
       <c r="M25" s="4">
-        <v>12</v>
-      </c>
-      <c r="N25" s="4">
         <v>10</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1996.2476359510699</v>
       </c>
@@ -12386,26 +12283,22 @@
       <c r="I26" s="4">
         <v>0.21922962314925801</v>
       </c>
-      <c r="J26" s="6">
-        <f>I26*366</f>
-        <v>80.238042072628431</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="J26" s="4">
         <v>2070.83972927371</v>
       </c>
-      <c r="L26" s="6">
-        <f>K26*366</f>
+      <c r="K26" s="6">
+        <f>J26*366</f>
         <v>757927.34091417782</v>
       </c>
+      <c r="L26" s="4">
+        <v>12</v>
+      </c>
       <c r="M26" s="4">
-        <v>12</v>
-      </c>
-      <c r="N26" s="4">
         <v>10</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1997.24711938423</v>
       </c>
@@ -12432,26 +12325,22 @@
       <c r="I27" s="4">
         <v>0.214636918500763</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
+        <v>1978.3223310105</v>
+      </c>
+      <c r="K27" s="6">
         <f t="shared" si="1"/>
-        <v>78.342475252778499</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1978.3223310105</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="2"/>
         <v>722087.65081883245</v>
       </c>
+      <c r="L27" s="4">
+        <v>12</v>
+      </c>
       <c r="M27" s="4">
-        <v>12</v>
-      </c>
-      <c r="N27" s="4">
         <v>10</v>
       </c>
-      <c r="O27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1998.2470319634699</v>
       </c>
@@ -12478,26 +12367,22 @@
       <c r="I28" s="4">
         <v>0.21282346717060499</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="4">
+        <v>1909.75433760074</v>
+      </c>
+      <c r="K28" s="6">
         <f t="shared" si="1"/>
-        <v>77.680565517270821</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1909.75433760074</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="2"/>
         <v>697060.33322427014</v>
       </c>
+      <c r="L28" s="4">
+        <v>12</v>
+      </c>
       <c r="M28" s="4">
-        <v>12</v>
-      </c>
-      <c r="N28" s="4">
         <v>10</v>
       </c>
-      <c r="O28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1999.2470319634699</v>
       </c>
@@ -12524,26 +12409,22 @@
       <c r="I29" s="4">
         <v>0.212281834534952</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="4">
+        <v>1866.46549877189</v>
+      </c>
+      <c r="K29" s="6">
         <f t="shared" si="1"/>
-        <v>77.482869605257477</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1866.46549877189</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="2"/>
         <v>681259.90705173986</v>
       </c>
+      <c r="L29" s="4">
+        <v>12</v>
+      </c>
       <c r="M29" s="4">
-        <v>12</v>
-      </c>
-      <c r="N29" s="4">
         <v>10</v>
       </c>
-      <c r="O29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2000.2476359510699</v>
       </c>
@@ -12570,26 +12451,22 @@
       <c r="I30" s="4">
         <v>0.211441838398749</v>
       </c>
-      <c r="J30" s="6">
-        <f>I30*366</f>
-        <v>77.387712853942134</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="J30" s="4">
         <v>1870.33348681605</v>
       </c>
-      <c r="L30" s="6">
-        <f>K30*366</f>
+      <c r="K30" s="6">
+        <f>J30*366</f>
         <v>684542.0561746743</v>
       </c>
+      <c r="L30" s="4">
+        <v>12</v>
+      </c>
       <c r="M30" s="4">
-        <v>12</v>
-      </c>
-      <c r="N30" s="4">
         <v>10</v>
       </c>
-      <c r="O30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2001.24711938423</v>
       </c>
@@ -12616,26 +12493,22 @@
       <c r="I31" s="4">
         <v>0.21283077695937899</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="4">
+        <v>1902.1416343886101</v>
+      </c>
+      <c r="K31" s="6">
         <f t="shared" si="1"/>
-        <v>77.68323359017333</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1902.1416343886101</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="2"/>
         <v>694281.69655184273</v>
       </c>
+      <c r="L31" s="4">
+        <v>12</v>
+      </c>
       <c r="M31" s="4">
-        <v>12</v>
-      </c>
-      <c r="N31" s="4">
         <v>10</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2002.2470319634699</v>
       </c>
@@ -12662,28 +12535,24 @@
       <c r="I32" s="4">
         <v>0.21298991673368201</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="4">
+        <v>1928.35314677008</v>
+      </c>
+      <c r="K32" s="6">
         <f t="shared" si="1"/>
-        <v>77.741319607793926</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1928.35314677008</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="2"/>
         <v>703848.89857107925</v>
       </c>
+      <c r="L32" s="4">
+        <v>12</v>
+      </c>
       <c r="M32" s="4">
-        <v>12</v>
-      </c>
-      <c r="N32" s="4">
         <v>10</v>
       </c>
-      <c r="O32" s="9">
+      <c r="N32" s="9">
         <v>765734.24380000005</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2003.2470319634699</v>
       </c>
@@ -12710,26 +12579,22 @@
       <c r="I33" s="4">
         <v>0.211268695827035</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="4">
+        <v>1942.4163460085199</v>
+      </c>
+      <c r="K33" s="6">
         <f t="shared" si="1"/>
-        <v>77.113073976867781</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1942.4163460085199</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="2"/>
         <v>708981.96629310981</v>
       </c>
+      <c r="L33" s="4">
+        <v>12</v>
+      </c>
       <c r="M33" s="4">
-        <v>12</v>
-      </c>
-      <c r="N33" s="4">
         <v>10</v>
       </c>
-      <c r="O33" s="4"/>
+      <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2004.2476359510699</v>
       </c>
@@ -12756,26 +12621,22 @@
       <c r="I34" s="4">
         <v>0.20955050519874199</v>
       </c>
-      <c r="J34" s="6">
-        <f>I34*366</f>
-        <v>76.695484902739565</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="J34" s="4">
         <v>1955.8546290889899</v>
       </c>
-      <c r="L34" s="6">
-        <f>K34*366</f>
+      <c r="K34" s="6">
+        <f>J34*366</f>
         <v>715842.79424657032</v>
       </c>
+      <c r="L34" s="4">
+        <v>12</v>
+      </c>
       <c r="M34" s="4">
-        <v>12</v>
-      </c>
-      <c r="N34" s="4">
         <v>10</v>
       </c>
-      <c r="O34" s="4"/>
+      <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2005.24711938423</v>
       </c>
@@ -12802,26 +12663,22 @@
       <c r="I35" s="4">
         <v>0.20875745280869201</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="4">
+        <v>1994.18529678799</v>
+      </c>
+      <c r="K35" s="6">
         <f t="shared" si="1"/>
-        <v>76.196470275172587</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1994.18529678799</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="2"/>
         <v>727877.63332761638</v>
       </c>
+      <c r="L35" s="4">
+        <v>12</v>
+      </c>
       <c r="M35" s="4">
-        <v>12</v>
-      </c>
-      <c r="N35" s="4">
         <v>10</v>
       </c>
-      <c r="O35" s="4"/>
+      <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2006.2470319634699</v>
       </c>
@@ -12848,26 +12705,22 @@
       <c r="I36" s="4">
         <v>0.20489341387497001</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="4">
+        <v>2030.7602595329899</v>
+      </c>
+      <c r="K36" s="6">
         <f t="shared" si="1"/>
-        <v>74.78609606436406</v>
-      </c>
-      <c r="K36" s="4">
-        <v>2030.7602595329899</v>
-      </c>
-      <c r="L36" s="6">
-        <f t="shared" si="2"/>
         <v>741227.49472954136</v>
       </c>
+      <c r="L36" s="4">
+        <v>12</v>
+      </c>
       <c r="M36" s="4">
-        <v>12</v>
-      </c>
-      <c r="N36" s="4">
         <v>10</v>
       </c>
-      <c r="O36" s="4"/>
+      <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2007.2470319634699</v>
       </c>
@@ -12894,26 +12747,22 @@
       <c r="I37" s="4">
         <v>0.19902969842600701</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="4">
+        <v>2019.79327643959</v>
+      </c>
+      <c r="K37" s="6">
         <f t="shared" si="1"/>
-        <v>72.645839925492552</v>
-      </c>
-      <c r="K37" s="4">
-        <v>2019.79327643959</v>
-      </c>
-      <c r="L37" s="6">
-        <f t="shared" si="2"/>
         <v>737224.54590045032</v>
       </c>
+      <c r="L37" s="4">
+        <v>12</v>
+      </c>
       <c r="M37" s="4">
-        <v>12</v>
-      </c>
-      <c r="N37" s="4">
         <v>10</v>
       </c>
-      <c r="O37" s="4"/>
+      <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2008.2476359510699</v>
       </c>
@@ -12940,26 +12789,22 @@
       <c r="I38" s="4">
         <v>0.19167710362995899</v>
       </c>
-      <c r="J38" s="6">
-        <f>I38*366</f>
-        <v>70.153819928564985</v>
-      </c>
-      <c r="K38" s="4">
+      <c r="J38" s="4">
         <v>1975.51893607172</v>
       </c>
-      <c r="L38" s="6">
-        <f>K38*366</f>
+      <c r="K38" s="6">
+        <f>J38*366</f>
         <v>723039.93060224946</v>
       </c>
+      <c r="L38" s="4">
+        <v>12</v>
+      </c>
       <c r="M38" s="4">
-        <v>12</v>
-      </c>
-      <c r="N38" s="4">
         <v>10</v>
       </c>
-      <c r="O38" s="4"/>
+      <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2009.24711938423</v>
       </c>
@@ -12986,26 +12831,22 @@
       <c r="I39" s="4">
         <v>0.18396864116838299</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="4">
+        <v>1920.4992608520599</v>
+      </c>
+      <c r="K39" s="6">
         <f t="shared" si="1"/>
-        <v>67.148554026459792</v>
-      </c>
-      <c r="K39" s="4">
-        <v>1920.4992608520599</v>
-      </c>
-      <c r="L39" s="6">
-        <f t="shared" si="2"/>
         <v>700982.23021100182</v>
       </c>
+      <c r="L39" s="4">
+        <v>12</v>
+      </c>
       <c r="M39" s="4">
-        <v>12</v>
-      </c>
-      <c r="N39" s="4">
         <v>10</v>
       </c>
-      <c r="O39" s="4"/>
+      <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2010.2470319634699</v>
       </c>
@@ -13032,26 +12873,22 @@
       <c r="I40" s="4">
         <v>0.176453607848363</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="4">
+        <v>1863.6089889642401</v>
+      </c>
+      <c r="K40" s="6">
         <f t="shared" si="1"/>
-        <v>64.405566864652499</v>
-      </c>
-      <c r="K40" s="4">
-        <v>1863.6089889642401</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="2"/>
         <v>680217.28097194759</v>
       </c>
+      <c r="L40" s="4">
+        <v>12</v>
+      </c>
       <c r="M40" s="4">
-        <v>12</v>
-      </c>
-      <c r="N40" s="4">
         <v>10</v>
       </c>
-      <c r="O40" s="4"/>
+      <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2011.2470319634699</v>
       </c>
@@ -13078,26 +12915,22 @@
       <c r="I41" s="4">
         <v>0.16926340875593901</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="4">
+        <v>1806.6135907394801</v>
+      </c>
+      <c r="K41" s="6">
         <f t="shared" si="1"/>
-        <v>61.78114419591774</v>
-      </c>
-      <c r="K41" s="4">
-        <v>1806.6135907394801</v>
-      </c>
-      <c r="L41" s="6">
-        <f t="shared" si="2"/>
         <v>659413.96061991027</v>
       </c>
+      <c r="L41" s="4">
+        <v>12</v>
+      </c>
       <c r="M41" s="4">
-        <v>12</v>
-      </c>
-      <c r="N41" s="4">
         <v>10</v>
       </c>
-      <c r="O41" s="4"/>
+      <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2012.2476359510699</v>
       </c>
@@ -13124,29 +12957,25 @@
       <c r="I42" s="4">
         <v>0.16435386626235901</v>
       </c>
-      <c r="J42" s="6">
-        <f>I42*366</f>
-        <v>60.153515052023401</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="J42" s="4">
         <v>1772.8490668889499</v>
       </c>
-      <c r="L42" s="6">
-        <f>K42*366</f>
+      <c r="K42" s="6">
+        <f>J42*366</f>
         <v>648862.75848135562</v>
       </c>
+      <c r="L42" s="4">
+        <v>12</v>
+      </c>
       <c r="M42" s="4">
-        <v>12</v>
-      </c>
-      <c r="N42" s="4">
         <v>10</v>
       </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="8">
+      <c r="N42" s="4"/>
+      <c r="O42" s="8">
         <v>451764.14169999998</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2013.24711938423</v>
       </c>
@@ -13173,26 +13002,22 @@
       <c r="I43" s="4">
         <v>0.16217947341984401</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="4">
+        <v>1749.70583745308</v>
+      </c>
+      <c r="K43" s="6">
         <f t="shared" si="1"/>
-        <v>59.195507798243064</v>
-      </c>
-      <c r="K43" s="4">
-        <v>1749.70583745308</v>
-      </c>
-      <c r="L43" s="6">
-        <f t="shared" si="2"/>
         <v>638642.63067037414</v>
       </c>
+      <c r="L43" s="4">
+        <v>12</v>
+      </c>
       <c r="M43" s="4">
-        <v>12</v>
-      </c>
-      <c r="N43" s="4">
         <v>10</v>
       </c>
-      <c r="O43" s="4"/>
+      <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2014.2470319634699</v>
       </c>
@@ -13219,26 +13044,22 @@
       <c r="I44" s="4">
         <v>0.16071393172300899</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="4">
+        <v>1726.6893270974499</v>
+      </c>
+      <c r="K44" s="6">
         <f t="shared" si="1"/>
-        <v>58.660585078898279</v>
-      </c>
-      <c r="K44" s="4">
-        <v>1726.6893270974499</v>
-      </c>
-      <c r="L44" s="6">
-        <f t="shared" si="2"/>
         <v>630241.60439056926</v>
       </c>
+      <c r="L44" s="4">
+        <v>12</v>
+      </c>
       <c r="M44" s="4">
-        <v>12</v>
-      </c>
-      <c r="N44" s="4">
         <v>10</v>
       </c>
-      <c r="O44" s="4"/>
+      <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2015.2470319634699</v>
       </c>
@@ -13265,26 +13086,22 @@
       <c r="I45" s="4">
         <v>0.15886843085417099</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="4">
+        <v>1702.88962858019</v>
+      </c>
+      <c r="K45" s="6">
         <f t="shared" si="1"/>
-        <v>57.98697726177241</v>
-      </c>
-      <c r="K45" s="4">
-        <v>1702.88962858019</v>
-      </c>
-      <c r="L45" s="6">
-        <f t="shared" si="2"/>
         <v>621554.71443176933</v>
       </c>
+      <c r="L45" s="4">
+        <v>12</v>
+      </c>
       <c r="M45" s="4">
-        <v>12</v>
-      </c>
-      <c r="N45" s="4">
         <v>10</v>
       </c>
-      <c r="O45" s="4"/>
+      <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2016.2476359510699</v>
       </c>
@@ -13311,26 +13128,22 @@
       <c r="I46" s="4">
         <v>0.157057768132398</v>
       </c>
-      <c r="J46" s="6">
-        <f>I46*366</f>
-        <v>57.483143136457663</v>
-      </c>
-      <c r="K46" s="4">
+      <c r="J46" s="4">
         <v>1684.79093233464</v>
       </c>
-      <c r="L46" s="6">
-        <f>K46*366</f>
+      <c r="K46" s="6">
+        <f>J46*366</f>
         <v>616633.4812344783</v>
       </c>
+      <c r="L46" s="4">
+        <v>12</v>
+      </c>
       <c r="M46" s="4">
-        <v>12</v>
-      </c>
-      <c r="N46" s="4">
         <v>10</v>
       </c>
-      <c r="O46" s="4"/>
+      <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2017.24711938423</v>
       </c>
@@ -13357,26 +13170,22 @@
       <c r="I47" s="4">
         <v>0.15553049914504599</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="4">
+        <v>1662.89034602484</v>
+      </c>
+      <c r="K47" s="6">
         <f t="shared" si="1"/>
-        <v>56.76863218794179</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1662.89034602484</v>
-      </c>
-      <c r="L47" s="6">
-        <f t="shared" si="2"/>
         <v>606954.97629906656</v>
       </c>
+      <c r="L47" s="4">
+        <v>12</v>
+      </c>
       <c r="M47" s="4">
-        <v>12</v>
-      </c>
-      <c r="N47" s="4">
         <v>10</v>
       </c>
-      <c r="O47" s="4"/>
+      <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2018.2470319634699</v>
       </c>
@@ -13403,24 +13212,20 @@
       <c r="I48" s="4">
         <v>0.154231244111217</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="4">
+        <v>1645.82095240323</v>
+      </c>
+      <c r="K48" s="6">
         <f t="shared" si="1"/>
-        <v>56.294404100594207</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1645.82095240323</v>
-      </c>
-      <c r="L48" s="6">
-        <f t="shared" si="2"/>
         <v>600724.64762717893</v>
       </c>
+      <c r="L48" s="4">
+        <v>12</v>
+      </c>
       <c r="M48" s="4">
-        <v>12</v>
-      </c>
-      <c r="N48" s="4">
         <v>10</v>
       </c>
-      <c r="O48" s="4"/>
+      <c r="N48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13482,7 +13287,7 @@
         <v>16.290487764897598</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13533,7 +13338,7 @@
         <v>602.59955841367605</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13648,7 +13453,7 @@
         <v>264.88896960078</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -13771,7 +13576,7 @@
         <v>57.647296574174497</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -13831,8 +13636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD48"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
